--- a/price_results_v2_20251104_220253.xlsx
+++ b/price_results_v2_20251104_220253.xlsx
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -346,6 +346,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16229,7 +16238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16243,1184 +16252,1386 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="n"/>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="A1" s="37" t="n"/>
+      <c r="B1" s="37" t="inlineStr">
         <is>
           <t>ピカ銅</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>並銅</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>砲金</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>真鍮</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>雑線80%</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="37" t="inlineStr">
         <is>
           <t>雑線60%-65%</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="37" t="inlineStr">
         <is>
           <t>VA線</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="37" t="inlineStr">
         <is>
           <t>アルミホイール</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="37" t="inlineStr">
         <is>
           <t>アルミサッシ</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="37" t="inlineStr">
         <is>
           <t>アルミ缶　バラ</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="L1" s="37" t="inlineStr">
         <is>
           <t>アルミ缶　プレス</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="M1" s="37" t="inlineStr">
         <is>
           <t>ステンレス304</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
+      <c r="N1" s="37" t="inlineStr">
         <is>
           <t>鉛バッテリー</t>
         </is>
       </c>
-      <c r="O1" s="9" t="inlineStr">
+      <c r="O1" s="37" t="inlineStr">
         <is>
           <t>各企業のアイテムの名称参考</t>
         </is>
       </c>
-      <c r="P1" s="9" t="inlineStr">
+      <c r="P1" s="37" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="38" t="inlineStr">
         <is>
           <t>眞田鋼業株式会社</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="37" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="C2" s="37" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="D2" s="37" t="inlineStr">
         <is>
           <t>1550</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="E2" s="37" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="F2" s="37" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="G2" s="37" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H2" s="37" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="I2" s="37" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="J2" s="37" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K2" s="37" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="L2" s="37" t="n">
+        <v>280</v>
+      </c>
+      <c r="M2" s="37" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N2" s="37" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="O2" s="35" t="n"/>
+      <c r="P2" s="35" t="n"/>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="38" t="inlineStr">
+        <is>
+          <t>明鑫貿易株式会社</t>
+        </is>
+      </c>
+      <c r="B3" s="37" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="C3" s="37" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="D3" s="37" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="E3" s="37" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="F3" s="37" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="G3" s="37" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H3" s="37" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="I3" s="39" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="J3" s="39" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="K3" s="39" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="L3" s="39" t="n">
+        <v>280</v>
+      </c>
+      <c r="M3" s="39" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N3" s="39" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="O3" s="35" t="n"/>
+      <c r="P3" s="35" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="38" t="inlineStr">
+        <is>
+          <t>東起産業（株）</t>
+        </is>
+      </c>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="C4" s="37" t="inlineStr">
+        <is>
+          <t>1670</t>
+        </is>
+      </c>
+      <c r="D4" s="37" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="E4" s="39" t="inlineStr">
         <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="F4" s="39" t="inlineStr">
         <is>
           <t>1300</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>980</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>1180</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="inlineStr">
-        <is>
-          <t>840</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>680</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr">
+      <c r="G4" s="37" t="n">
+        <v>900</v>
+      </c>
+      <c r="H4" s="37" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="I4" s="37" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="J4" s="37" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="K4" s="37" t="n">
+        <v>150</v>
+      </c>
+      <c r="L4" s="37" t="n"/>
+      <c r="M4" s="37" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N4" s="39" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="O4" s="35" t="n"/>
+      <c r="P4" s="35" t="n"/>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="38" t="inlineStr">
+        <is>
+          <t>鴻祥貿易株式会社</t>
+        </is>
+      </c>
+      <c r="B5" s="37" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="C5" s="37" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="D5" s="37" t="n"/>
+      <c r="E5" s="39" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="F5" s="39" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G5" s="39" t="n">
+        <v>950</v>
+      </c>
+      <c r="H5" s="39" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="I5" s="37" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="J5" s="37" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K5" s="37" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="L5" s="37" t="n">
         <v>280</v>
       </c>
-      <c r="M2" s="9" t="inlineStr">
+      <c r="M5" s="39" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="N5" s="39" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="O5" s="37" t="n"/>
+      <c r="P5" s="35" t="n"/>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="38" t="inlineStr">
+        <is>
+          <t>安城貿易（愛知）</t>
+        </is>
+      </c>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="C6" s="37" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="D6" s="37" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="E6" s="39" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="F6" s="39" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="G6" s="39" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="H6" s="37" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="I6" s="39" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="J6" s="37" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="K6" s="39" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="L6" s="39" t="n">
+        <v>260</v>
+      </c>
+      <c r="M6" s="39" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N6" s="39" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="O6" s="37" t="n"/>
+      <c r="P6" s="35" t="n"/>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="35" t="inlineStr">
+        <is>
+          <t>有限会社金田商事</t>
+        </is>
+      </c>
+      <c r="B7" s="35" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="C7" s="40" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="D7" s="40" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="E7" s="35" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="F7" s="35" t="n"/>
+      <c r="G7" s="35" t="n"/>
+      <c r="H7" s="35" t="n"/>
+      <c r="I7" s="35" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="J7" s="40" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="K7" s="40" t="n"/>
+      <c r="L7" s="40" t="n"/>
+      <c r="M7" s="40" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N7" s="35" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="O7" s="41" t="n"/>
+      <c r="P7" s="35" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="35" t="inlineStr">
+        <is>
+          <t>木村金属（大阪）</t>
+        </is>
+      </c>
+      <c r="B8" s="35" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="C8" s="35" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="D8" s="35" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="E8" s="40" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="F8" s="35" t="n"/>
+      <c r="G8" s="35" t="n"/>
+      <c r="H8" s="35" t="n"/>
+      <c r="I8" s="35" t="n"/>
+      <c r="J8" s="35" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="K8" s="35" t="n"/>
+      <c r="L8" s="35" t="n"/>
+      <c r="M8" s="35" t="n"/>
+      <c r="N8" s="35" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="O8" s="35" t="n"/>
+      <c r="P8" s="35" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="35" t="inlineStr">
+        <is>
+          <t>土金（大阪）</t>
+        </is>
+      </c>
+      <c r="B9" s="40" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="C9" s="35" t="inlineStr">
+        <is>
+          <t>1610</t>
+        </is>
+      </c>
+      <c r="D9" s="40" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="E9" s="35" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="F9" s="40" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="G9" s="40" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="H9" s="40" t="n"/>
+      <c r="I9" s="35" t="n"/>
+      <c r="J9" s="35" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K9" s="40" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L9" s="40" t="n">
+        <v>150</v>
+      </c>
+      <c r="M9" s="35" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N9" s="35" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="O9" s="35" t="n"/>
+      <c r="P9" s="35" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="40" t="inlineStr">
+        <is>
+          <t>大畑商事（千葉・大阪）</t>
+        </is>
+      </c>
+      <c r="B10" s="35" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="C10" s="35" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="D10" s="35" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="E10" s="35" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="F10" s="35" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="G10" s="35" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H10" s="35" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="I10" s="35" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="J10" s="35" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="K10" s="35" t="n"/>
+      <c r="L10" s="35" t="n"/>
+      <c r="M10" s="35" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N10" s="35" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="O10" s="35" t="n"/>
+      <c r="P10" s="35" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="35" t="inlineStr">
+        <is>
+          <t>千福商会（大阪）</t>
+        </is>
+      </c>
+      <c r="B11" s="35" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="C11" s="35" t="inlineStr">
+        <is>
+          <t>1720</t>
+        </is>
+      </c>
+      <c r="D11" s="35" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="E11" s="35" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="F11" s="40" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="G11" s="40" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H11" s="35" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="I11" s="35" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="J11" s="35" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="K11" s="35" t="n"/>
+      <c r="L11" s="35" t="n"/>
+      <c r="M11" s="40" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N11" s="35" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="O11" s="35" t="n"/>
+      <c r="P11" s="35" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="35" t="inlineStr">
+        <is>
+          <t>株式会社鳳山</t>
+        </is>
+      </c>
+      <c r="B12" s="35" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="C12" s="40" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+      <c r="D12" s="35" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="E12" s="35" t="inlineStr">
+        <is>
+          <t>1177</t>
+        </is>
+      </c>
+      <c r="F12" s="40" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="G12" s="40" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="H12" s="35" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="I12" s="35" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="J12" s="35" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K12" s="35" t="n"/>
+      <c r="L12" s="35" t="n"/>
+      <c r="M12" s="35" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N12" s="40" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="O12" s="35" t="n"/>
+      <c r="P12" s="35" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="35" t="inlineStr">
+        <is>
+          <t>株式会社 春日商会　富山支店</t>
+        </is>
+      </c>
+      <c r="B13" s="35" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="C13" s="35" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="D13" s="35" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
+      </c>
+      <c r="E13" s="35" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="F13" s="40" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+      <c r="G13" s="40" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="H13" s="35" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="I13" s="35" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="J13" s="35" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="K13" s="35" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="L13" s="40" t="n">
+        <v>276</v>
+      </c>
+      <c r="M13" s="40" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N13" s="40" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="O13" s="35" t="n"/>
+      <c r="P13" s="35" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="35" t="inlineStr">
+        <is>
+          <t>株式会社 春日商会　滋賀支店</t>
+        </is>
+      </c>
+      <c r="B14" s="35" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="C14" s="35" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="D14" s="35" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="E14" s="35" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="F14" s="40" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="G14" s="40" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="H14" s="35" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="I14" s="35" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="J14" s="35" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="K14" s="35" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="L14" s="40" t="n">
+        <v>276</v>
+      </c>
+      <c r="M14" s="40" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N14" s="40" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="O14" s="35" t="n"/>
+      <c r="P14" s="35" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="inlineStr">
+        <is>
+          <t>株式会社 春日商会　一宮本社</t>
+        </is>
+      </c>
+      <c r="B15" s="35" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="C15" s="35" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="D15" s="35" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="E15" s="35" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="F15" s="40" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="G15" s="40" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="H15" s="35" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="I15" s="35" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="J15" s="35" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="K15" s="35" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="L15" s="40" t="n">
+        <v>276</v>
+      </c>
+      <c r="M15" s="40" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N15" s="40" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="O15" s="35" t="n"/>
+      <c r="P15" s="35" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="inlineStr">
+        <is>
+          <t>東北キング</t>
+        </is>
+      </c>
+      <c r="B16" s="35" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="C16" s="35" t="inlineStr">
+        <is>
+          <t>1832</t>
+        </is>
+      </c>
+      <c r="D16" s="35" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="E16" s="35" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="F16" s="40" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="G16" s="40" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="H16" s="35" t="n"/>
+      <c r="I16" s="40" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="J16" s="40" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="K16" s="35" t="n"/>
+      <c r="L16" s="35" t="n"/>
+      <c r="M16" s="35" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N16" s="35" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="O16" s="35" t="n"/>
+      <c r="P16" s="35" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="35" t="inlineStr">
+        <is>
+          <t>株式会社八木</t>
+        </is>
+      </c>
+      <c r="B17" s="35" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="C17" s="35" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="D17" s="35" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="E17" s="35" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="F17" s="35" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="G17" s="35" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="H17" s="35" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="I17" s="35" t="n"/>
+      <c r="J17" s="35" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="K17" s="35" t="n"/>
+      <c r="L17" s="35" t="n"/>
+      <c r="M17" s="35" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N17" s="35" t="n"/>
+      <c r="O17" s="35" t="n"/>
+      <c r="P17" s="35" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="35" t="inlineStr">
+        <is>
+          <t>有限会社　八尾アルミセンター</t>
+        </is>
+      </c>
+      <c r="B18" s="35" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="C18" s="35" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="D18" s="35" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="E18" s="35" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="F18" s="35" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="G18" s="35" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="H18" s="35" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="I18" s="35" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="J18" s="35" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="K18" s="35" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="L18" s="35" t="n">
+        <v>335</v>
+      </c>
+      <c r="M18" s="35" t="n"/>
+      <c r="N18" s="35" t="n"/>
+      <c r="O18" s="35" t="n"/>
+      <c r="P18" s="35" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="35" t="inlineStr">
+        <is>
+          <t>株式会社 ヒラノヤ</t>
+        </is>
+      </c>
+      <c r="B19" s="35" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+      <c r="C19" s="35" t="inlineStr">
+        <is>
+          <t>1560</t>
+        </is>
+      </c>
+      <c r="D19" s="35" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="E19" s="35" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="F19" s="35" t="n"/>
+      <c r="G19" s="35" t="n"/>
+      <c r="H19" s="35" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="I19" s="35" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="J19" s="35" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="K19" s="35" t="n"/>
+      <c r="L19" s="35" t="n"/>
+      <c r="M19" s="35" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N19" s="35" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="O19" s="35" t="n"/>
+      <c r="P19" s="35" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="35" t="inlineStr">
+        <is>
+          <t>鴻陽産業株式会社 岐阜工場</t>
+        </is>
+      </c>
+      <c r="B20" s="35" t="n"/>
+      <c r="C20" s="35" t="n"/>
+      <c r="D20" s="35" t="n"/>
+      <c r="E20" s="35" t="n"/>
+      <c r="F20" s="35" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="G20" s="35" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="H20" s="35" t="n"/>
+      <c r="I20" s="35" t="n"/>
+      <c r="J20" s="35" t="n"/>
+      <c r="K20" s="35" t="n"/>
+      <c r="L20" s="35" t="n"/>
+      <c r="M20" s="35" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="N2" s="9" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="O2" s="10" t="n"/>
-      <c r="P2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>明鑫貿易株式会社</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>1590</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
-        <is>
-          <t>1410</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="H3" s="9" t="inlineStr">
-        <is>
-          <t>730</t>
-        </is>
-      </c>
-      <c r="I3" s="11" t="n">
-        <v>390</v>
-      </c>
-      <c r="J3" s="11" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="K3" s="11" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="L3" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="M3" s="11" t="n">
-        <v>150</v>
-      </c>
-      <c r="N3" s="11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="O3" s="10" t="n"/>
-      <c r="P3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>東起産業（株）</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>1730</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>1670</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>900</v>
-      </c>
-      <c r="H4" s="9" t="inlineStr">
-        <is>
-          <t>710</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="J4" s="9" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>150</v>
-      </c>
-      <c r="L4" s="9" t="n"/>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="N4" s="11" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-    </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>鴻祥貿易株式会社</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>1600</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>850</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="H5" s="11" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="I5" s="9" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="J5" s="9" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="K5" s="9" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>280</v>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t>4175</t>
-        </is>
-      </c>
-      <c r="N5" s="11" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="O5" s="9" t="n"/>
-      <c r="P5" s="10" t="n"/>
-    </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>安城貿易（愛知）</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t>1640</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>1470</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>830</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="H6" s="9" t="inlineStr">
-        <is>
-          <t>730</t>
-        </is>
-      </c>
-      <c r="I6" s="11" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="J6" s="9" t="inlineStr">
+      <c r="N20" s="35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="O20" s="35" t="n"/>
+      <c r="P20" s="35" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="35" t="inlineStr">
+        <is>
+          <t>株式会社 大垣金属</t>
+        </is>
+      </c>
+      <c r="B21" s="35" t="n"/>
+      <c r="C21" s="35" t="n"/>
+      <c r="D21" s="35" t="n"/>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="35" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="G21" s="35" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="H21" s="35" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="I21" s="35" t="n"/>
+      <c r="J21" s="35" t="n"/>
+      <c r="K21" s="35" t="n"/>
+      <c r="L21" s="35" t="n"/>
+      <c r="M21" s="35" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N21" s="35" t="n"/>
+      <c r="O21" s="35" t="n"/>
+      <c r="P21" s="35" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="inlineStr">
+        <is>
+          <t>高橋商事株式会社</t>
+        </is>
+      </c>
+      <c r="B22" s="35" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="C22" s="35" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="F22" s="35" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+      <c r="G22" s="35" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="H22" s="35" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="I22" s="35" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="J22" s="35" t="inlineStr">
         <is>
           <t>350</t>
         </is>
       </c>
-      <c r="K6" s="11" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>260</v>
-      </c>
-      <c r="M6" s="11" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="N6" s="11" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="O6" s="9" t="n"/>
-      <c r="P6" s="10" t="n"/>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>有限会社金田商事</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>1734</t>
-        </is>
-      </c>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="n"/>
-      <c r="H7" s="10" t="n"/>
-      <c r="I7" s="10" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="J7" s="12" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="K7" s="12" t="n"/>
-      <c r="L7" s="12" t="n"/>
-      <c r="M7" s="12" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="N7" s="10" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="O7" s="13" t="n"/>
-      <c r="P7" s="10" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>木村金属（大阪）</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>1730</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="n"/>
-      <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n"/>
-      <c r="I8" s="10" t="n"/>
-      <c r="J8" s="10" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="K8" s="10" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="10" t="n"/>
-      <c r="N8" s="10" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="O8" s="10" t="n"/>
-      <c r="P8" s="10" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="inlineStr">
-        <is>
-          <t>土金（大阪）</t>
-        </is>
-      </c>
-      <c r="B9" s="12" t="inlineStr">
-        <is>
-          <t>490</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>1610</t>
-        </is>
-      </c>
-      <c r="D9" s="12" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>1310</t>
-        </is>
-      </c>
-      <c r="G9" s="12" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="H9" s="12" t="n"/>
-      <c r="I9" s="10" t="n"/>
-      <c r="J9" s="10" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="K9" s="12" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="M9" s="10" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="N9" s="10" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="O9" s="10" t="n"/>
-      <c r="P9" s="10" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="inlineStr">
-        <is>
-          <t>大畑商事（千葉・大阪）</t>
-        </is>
-      </c>
-      <c r="B10" s="10" t="n"/>
-      <c r="C10" s="10" t="n"/>
-      <c r="D10" s="10" t="n"/>
-      <c r="E10" s="10" t="n"/>
-      <c r="F10" s="10" t="n"/>
-      <c r="G10" s="10" t="n"/>
-      <c r="H10" s="10" t="n"/>
-      <c r="I10" s="10" t="n"/>
-      <c r="J10" s="10" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="K10" s="10" t="n"/>
-      <c r="L10" s="10" t="n"/>
-      <c r="M10" s="10" t="n"/>
-      <c r="N10" s="10" t="n"/>
-      <c r="O10" s="10" t="n"/>
-      <c r="P10" s="10" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>千福商会（大阪）</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>1560</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="I11" s="10" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="J11" s="10" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="K11" s="10" t="n"/>
-      <c r="L11" s="10" t="n"/>
-      <c r="M11" s="12" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="N11" s="10" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="O11" s="10" t="n"/>
-      <c r="P11" s="10" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>株式会社鳳山</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>1716</t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>1470</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>1496</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>1089</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
-      <c r="G12" s="12" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="H12" s="10" t="n"/>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>352</t>
-        </is>
-      </c>
-      <c r="J12" s="10" t="inlineStr">
-        <is>
-          <t>352</t>
-        </is>
-      </c>
-      <c r="K12" s="10" t="n"/>
-      <c r="L12" s="10" t="n"/>
-      <c r="M12" s="10" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="N12" s="12" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="O12" s="10" t="n"/>
-      <c r="P12" s="10" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>株式会社 春日商会　富山支店</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t>1676</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>1626</t>
-        </is>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>1466</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>1096</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>1256</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>736</t>
-        </is>
-      </c>
-      <c r="I13" s="10" t="inlineStr">
-        <is>
-          <t>396</t>
-        </is>
-      </c>
-      <c r="J13" s="10" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="K13" s="10" t="inlineStr">
-        <is>
-          <t>276</t>
-        </is>
-      </c>
-      <c r="L13" s="12" t="n">
-        <v>276</v>
-      </c>
-      <c r="M13" s="12" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="N13" s="12" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="O13" s="10" t="n"/>
-      <c r="P13" s="10" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>株式会社 春日商会　滋賀支店</t>
-        </is>
-      </c>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>1678</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>1628</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>1468</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>1098</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
-        <is>
-          <t>1258</t>
-        </is>
-      </c>
-      <c r="G14" s="12" t="inlineStr">
-        <is>
-          <t>943</t>
-        </is>
-      </c>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="J14" s="10" t="inlineStr">
-        <is>
-          <t>388</t>
-        </is>
-      </c>
-      <c r="K14" s="10" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="L14" s="12" t="n">
-        <v>276</v>
-      </c>
-      <c r="M14" s="12" t="inlineStr">
-        <is>
-          <t>533</t>
-        </is>
-      </c>
-      <c r="N14" s="12" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="O14" s="10" t="n"/>
-      <c r="P14" s="10" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>株式会社 春日商会　一宮本社</t>
-        </is>
-      </c>
-      <c r="B15" s="10" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>1630</t>
-        </is>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>1470</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="F15" s="12" t="inlineStr">
-        <is>
-          <t>1260</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>740</t>
-        </is>
-      </c>
-      <c r="I15" s="10" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="J15" s="10" t="inlineStr">
-        <is>
-          <t>390</t>
-        </is>
-      </c>
-      <c r="K15" s="10" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="L15" s="12" t="n">
-        <v>276</v>
-      </c>
-      <c r="M15" s="12" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="N15" s="12" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="O15" s="10" t="n"/>
-      <c r="P15" s="10" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>東北キング</t>
-        </is>
-      </c>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>1738</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>1639</t>
-        </is>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>1524</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>1298</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>952</v>
-      </c>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="12" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="J16" s="12" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="K16" s="10" t="n"/>
-      <c r="L16" s="10" t="n"/>
-      <c r="M16" s="10" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="N16" s="10" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="O16" s="10" t="n"/>
-      <c r="P16" s="10" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="inlineStr">
-        <is>
-          <t>株式会社八木</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>1570</t>
-        </is>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>1380</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="10" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="H17" s="10" t="inlineStr">
-        <is>
-          <t>710</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="n"/>
-      <c r="J17" s="10" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="K17" s="10" t="n"/>
-      <c r="L17" s="10" t="n"/>
-      <c r="M17" s="10" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="N17" s="10" t="n"/>
-      <c r="O17" s="10" t="n"/>
-      <c r="P17" s="10" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>有限会社　八尾アルミセンター</t>
-        </is>
-      </c>
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>1580</t>
-        </is>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
-        <is>
-          <t>1430</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="inlineStr">
-        <is>
-          <t>1260</t>
-        </is>
-      </c>
-      <c r="G18" s="10" t="inlineStr">
-        <is>
-          <t>890</t>
-        </is>
-      </c>
-      <c r="H18" s="10" t="inlineStr">
-        <is>
-          <t>715</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="J18" s="10" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
-      <c r="K18" s="10" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
-      </c>
-      <c r="L18" s="10" t="n">
-        <v>335</v>
-      </c>
-      <c r="M18" s="10" t="n"/>
-      <c r="N18" s="10" t="n"/>
-      <c r="O18" s="10" t="n"/>
-      <c r="P18" s="10" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10" t="inlineStr">
-        <is>
-          <t>株式会社 ヒラノヤ</t>
-        </is>
-      </c>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>1560</t>
-        </is>
-      </c>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>1430</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="F19" s="10" t="n"/>
-      <c r="G19" s="10" t="n"/>
-      <c r="H19" s="10" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="J19" s="10" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="K19" s="10" t="n"/>
-      <c r="L19" s="10" t="n"/>
-      <c r="M19" s="10" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="N19" s="10" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="O19" s="10" t="n"/>
-      <c r="P19" s="10" t="n"/>
+      <c r="K22" s="35" t="n"/>
+      <c r="L22" s="35" t="n"/>
+      <c r="M22" s="35" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N22" s="35" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="O22" s="35" t="n"/>
+      <c r="P22" s="35" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
